--- a/Projects/SANOFISN/Data/Template.xlsx
+++ b/Projects/SANOFISN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -833,25 +833,25 @@
     <t xml:space="preserve">Aspegic 100MG PWD</t>
   </si>
   <si>
+    <t xml:space="preserve">Maalox stick pack 4,3ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox Syrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox Tabs 400MG #20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol 300ml Adult</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rhinathiol 125ml Enfant</t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox Syrup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox Tabs 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 300ml Adult</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rhinathiol Promethazine</t>
   </si>
   <si>
     <t xml:space="preserve">Rhinathiol SS Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox stick pack 4,3ml</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
     </font>
@@ -912,13 +912,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1039,6 +1032,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1159,12 +1159,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1225,11 +1225,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1237,59 +1277,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="19" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1301,7 +1297,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1313,27 +1309,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1341,7 +1333,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1349,15 +1341,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1365,15 +1357,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1381,7 +1377,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1476,14 +1472,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3036437246964"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.9716599190283"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,19 +1737,19 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.2145748987854"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.4412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2071,20 +2067,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="25.2145748987854"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="31.2226720647773"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="17.3805668016194"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="25" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="25.82995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="31.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="17.753036437247"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.18218623481781"/>
   </cols>
   <sheetData>
-    <row r="1" s="14" customFormat="true" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2106,134 +2102,134 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="22"/>
       <c r="D4" s="20"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="20"/>
       <c r="C5" s="22"/>
       <c r="D5" s="20"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="22"/>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2258,25 +2254,25 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="32" width="20.9392712550607"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="37.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="20.9392712550607"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="14.9311740890688"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="38.4412955465587"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="A1" s="33"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2298,15 +2294,15 @@
       <c r="E2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2321,15 +2317,15 @@
       <c r="E3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="36" t="n">
+      <c r="F3" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2344,15 +2340,15 @@
       <c r="E4" s="21" t="n">
         <v>3582910020462</v>
       </c>
-      <c r="F4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="36" t="n">
+      <c r="F4" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2367,15 +2363,15 @@
       <c r="E5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="36" t="n">
+      <c r="F5" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="56.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2390,10 +2386,10 @@
       <c r="E6" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="36" t="n">
+      <c r="F6" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2419,20 +2415,21 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="38" width="36.3643724696356"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="22.1578947368421"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="26.080971659919"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="39" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="37.2145748987854"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="22.6437246963563"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="27.2995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="37" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2446,95 +2443,95 @@
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31" t="n">
+      <c r="F3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="31" t="n">
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="31" t="n">
+      <c r="F5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2560,27 +2557,27 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="31.3441295546559"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="43.331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="46" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="46" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="46" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="46" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="47" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="32.0728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="44.4412955465587"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="27.0566801619433"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="44" width="18.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="45" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="16" t="s">
         <v>30</v>
       </c>
@@ -2588,31 +2585,31 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="39" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2627,16 +2624,16 @@
       <c r="E3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="49" t="n">
+      <c r="F3" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="36" t="n">
+      <c r="G3" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2651,16 +2648,16 @@
       <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="49" t="n">
+      <c r="F4" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="36" t="n">
+      <c r="G4" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="50"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2675,15 +2672,15 @@
       <c r="E5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="49" t="n">
+      <c r="F5" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="49" t="n">
+      <c r="G5" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2698,15 +2695,15 @@
       <c r="E6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="49" t="n">
+      <c r="F6" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="49" t="n">
+      <c r="G6" s="47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2721,15 +2718,15 @@
       <c r="E7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="49" t="n">
+      <c r="F7" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="49" t="n">
+      <c r="G7" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -2744,18 +2741,18 @@
       <c r="E8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="49" t="n">
+      <c r="F8" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="49" t="n">
+      <c r="G8" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="49" t="s">
         <v>76</v>
       </c>
       <c r="C9" s="21" t="n">
@@ -2767,15 +2764,15 @@
       <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="49" t="n">
+      <c r="F9" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2790,19 +2787,19 @@
       <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="49" t="n">
+      <c r="F10" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C11" s="21" t="n">
         <v>3582910032892</v>
@@ -2813,19 +2810,19 @@
       <c r="E11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="49" t="n">
+      <c r="F11" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="21" t="n">
         <v>3582910020967</v>
@@ -2836,19 +2833,19 @@
       <c r="E12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="49" t="n">
+      <c r="F12" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="21" t="n">
         <v>3582910062189</v>
@@ -2859,111 +2856,111 @@
       <c r="E13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="49" t="n">
+      <c r="F13" s="47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="54" t="n">
+      <c r="C14" s="53" t="n">
         <v>3582910075820</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="49" t="n">
+      <c r="F14" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="49" t="n">
+      <c r="G14" s="47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="54" t="n">
+      <c r="C15" s="53" t="n">
         <v>3582910075813</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="49" t="n">
-        <v>4</v>
-      </c>
-      <c r="G15" s="49" t="n">
-        <v>4</v>
+      <c r="F15" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="52" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="21" t="n">
         <v>3582910075820</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="49" t="n">
+      <c r="F16" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="49" t="n">
+      <c r="G16" s="47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="21" t="n">
         <v>3582910075813</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="49" t="n">
+      <c r="F17" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="49" t="n">
+      <c r="G17" s="47" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="53" t="s">
-        <v>80</v>
+      <c r="B18" s="52" t="s">
+        <v>74</v>
       </c>
       <c r="C18" s="21" t="n">
         <v>3582910022084</v>
@@ -2974,18 +2971,18 @@
       <c r="E18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="49" t="n">
+      <c r="F18" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="49" t="n">
+      <c r="G18" s="47" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="52" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="21" t="n">
@@ -2997,11 +2994,11 @@
       <c r="E19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="49" t="n">
-        <v>4</v>
-      </c>
-      <c r="G19" s="49" t="n">
-        <v>4</v>
+      <c r="F19" s="50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" s="50" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/SANOFISN/Data/Template.xlsx
+++ b/Projects/SANOFISN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">DOLIPRANE 1G Effervescent</t>
+    <t xml:space="preserve">Doliprane 1G Effervescent</t>
   </si>
   <si>
     <t xml:space="preserve">Doliprane</t>
@@ -731,19 +731,19 @@
     <t xml:space="preserve">Pain</t>
   </si>
   <si>
-    <t xml:space="preserve">DOLIPRANE 500mg Effervescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOLIPRANE 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASPEGIC 100MG PWD</t>
+    <t xml:space="preserve">Doliprane 500mg Effervescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doliprane 300mg Pwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspegic 100MG PWD</t>
   </si>
   <si>
     <t xml:space="preserve">Aspegic</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX stick pack 4,3ml </t>
+    <t xml:space="preserve">Maalox stick pack 4,3ml </t>
   </si>
   <si>
     <t xml:space="preserve">Maalox</t>
@@ -752,13 +752,13 @@
     <t xml:space="preserve">Digestive Health</t>
   </si>
   <si>
-    <t xml:space="preserve">MAALOX Syrup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAALOX TABS 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL 300ml Adult</t>
+    <t xml:space="preserve">Maalox  Syrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox Tabs 400MG #20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol 300ml Adult</t>
   </si>
   <si>
     <t xml:space="preserve">Rhinathiol</t>
@@ -767,34 +767,34 @@
     <t xml:space="preserve">Cough and Cold</t>
   </si>
   <si>
-    <t xml:space="preserve">RHINATHIOL125ml Enfant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL Promethazine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL SS Adult</t>
+    <t xml:space="preserve">Rhinathiol 125ml Enfant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol Promethazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol  SS Adult</t>
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
   </si>
   <si>
-    <t xml:space="preserve">DOLIPRANE 1G Effervescent, DOLIPRANE 500mg Effervescent, DOLIPRANE 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910075820, 3582910075813, 3582910076155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAALOX stick pack 4,3ml, MAALOX Syrup, MAALOX TABS 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910022084, 3582910014867, 3582910066163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHINATHIOL 300ml Adult, RHINATHIOL125ml Enfant, RHINATHIOL Promethazine, RHINATHIOL SS Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910012153, 3582910032892, 3582910020967, 3582910062189</t>
+    <t xml:space="preserve">Doliprane 1G Effervescent ,Doliprane 500mg Effervescent ,Doliprane 300mg Pwd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582910075820 ,3582910075813 ,3582910076155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maalox stick pack 4,3ml ,Maalox Syrup ,Maalox Tabs 400MG #20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582910022084 ,3582910014867 ,3582910066163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhinathiol 300ml Adult ,Rhinathiol 125ml Enfant ,Rhinathiol Promethazine ,Rhinathiol SS Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3582910012153 ,3582910032892 ,3582910020967 ,3582910062189</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal Doliprane CTU</t>
@@ -821,37 +821,13 @@
     <t xml:space="preserve">Multicategory</t>
   </si>
   <si>
-    <t xml:space="preserve">Doliprane 1G Effervescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 500mg Effervescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspegic 100MG PWD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox stick pack 4,3ml </t>
-  </si>
-  <si>
     <t xml:space="preserve">Maalox Syrup</t>
   </si>
   <si>
-    <t xml:space="preserve">Maalox Tabs 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 300ml Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 125ml Enfant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol Promethazine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rhinathiol SS Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Minimum Facings Secondary </t>
   </si>
 </sst>
 </file>
@@ -864,7 +840,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -888,13 +864,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="177"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
@@ -912,6 +881,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -1039,8 +1015,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,7 +1050,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8FAADC"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -1107,6 +1089,12 @@
         <bgColor rgb="FFC5E0B4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF8FAADC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
@@ -1131,7 +1119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1155,11 +1143,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1169,11 +1153,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1217,15 +1201,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1233,15 +1217,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1265,15 +1249,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1289,23 +1273,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,11 +1301,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,7 +1337,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1361,11 +1345,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1381,20 +1361,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1445,7 +1428,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFA5A5A5"/>
       <rgbColor rgb="FF002060"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1467,19 +1450,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="A3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.080971659919"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5465587044534"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0728744939271"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,19 +1720,19 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.4453441295547"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.3441295546559"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1786,7 +1769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>23</v>
       </c>
@@ -1809,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
         <v>23</v>
       </c>
@@ -1855,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
         <v>23</v>
       </c>
@@ -1878,7 +1861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>23</v>
       </c>
@@ -1924,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
@@ -1970,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
         <v>23</v>
       </c>
@@ -1993,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
         <v>23</v>
       </c>
@@ -2062,17 +2045,17 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="A3:G19 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="25.82995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="31.9514170040486"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="17.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="26.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="32.8056680161943"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2085,6 +2068,7 @@
         <v>30</v>
       </c>
       <c r="G1" s="16"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
@@ -2254,17 +2238,17 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="38.4412955465587"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.914979757085"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2301,7 +2285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="42.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
         <v>14</v>
       </c>
@@ -2324,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="34" t="s">
         <v>14</v>
       </c>
@@ -2347,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="42.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="34" t="s">
         <v>14</v>
       </c>
@@ -2415,21 +2399,21 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="29.3805668016194"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="37.2145748987854"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="22.6437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="27.2995951417004"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="37" width="9.18218623481781"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.1133603238866"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="38.1902834008097"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="27.9068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="37" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2557,19 +2541,19 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="32.0728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="44.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="27.0566801619433"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="44" width="18.3684210526316"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="45" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="45.5384615384615"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="19.82995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="27.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="44" width="18.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="45" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2613,7 +2597,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C3" s="21" t="n">
         <v>3582910075820</v>
@@ -2637,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="n">
         <v>3582910075813</v>
@@ -2661,7 +2645,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C5" s="21" t="n">
         <v>3582910076155</v>
@@ -2684,7 +2668,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C6" s="21" t="n">
         <v>3582910020462</v>
@@ -2707,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C7" s="21" t="n">
         <v>3582910022084</v>
@@ -2730,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>3582910014867</v>
@@ -2752,8 +2736,8 @@
       <c r="A9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>76</v>
+      <c r="B9" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="21" t="n">
         <v>3582910066163</v>
@@ -2764,7 +2748,7 @@
       <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="50" t="n">
+      <c r="F9" s="49" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="47" t="n">
@@ -2776,7 +2760,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C10" s="21" t="n">
         <v>3582910012153</v>
@@ -2799,7 +2783,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C11" s="21" t="n">
         <v>3582910032892</v>
@@ -2822,7 +2806,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C12" s="21" t="n">
         <v>3582910020967</v>
@@ -2845,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C13" s="21" t="n">
         <v>3582910062189</v>
@@ -2864,19 +2848,19 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="53" t="n">
+      <c r="A14" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="52" t="n">
         <v>3582910075820</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="53" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="47" t="n">
@@ -2887,42 +2871,42 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="53" t="n">
+      <c r="A15" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="52" t="n">
         <v>3582910075813</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="50" t="n">
+      <c r="F15" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="50" t="n">
+      <c r="G15" s="49" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>70</v>
+      <c r="A16" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="21" t="n">
         <v>3582910075820</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="53" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="47" t="n">
@@ -2933,19 +2917,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="52" t="s">
-        <v>71</v>
+      <c r="A17" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="21" t="n">
         <v>3582910075813</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="E17" s="53" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="47" t="n">
@@ -2956,11 +2940,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>74</v>
+      <c r="A18" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="21" t="n">
         <v>3582910022084</v>
@@ -2979,25 +2963,25 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="52" t="s">
-        <v>77</v>
+      <c r="A19" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="21" t="n">
         <v>3582910012153</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="50" t="n">
+      <c r="F19" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="50" t="n">
+      <c r="G19" s="49" t="n">
         <v>3</v>
       </c>
     </row>

--- a/Projects/SANOFISN/Data/Template.xlsx
+++ b/Projects/SANOFISN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -777,24 +777,6 @@
   </si>
   <si>
     <t xml:space="preserve">SKUs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 1G Effervescent ,Doliprane 500mg Effervescent ,Doliprane 300mg Pwd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910075820 ,3582910075813 ,3582910076155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maalox stick pack 4,3ml ,Maalox Syrup ,Maalox Tabs 400MG #20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910022084 ,3582910014867 ,3582910066163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhinathiol 300ml Adult ,Rhinathiol 125ml Enfant ,Rhinathiol Promethazine ,Rhinathiol SS Adult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3582910012153 ,3582910032892 ,3582910020967 ,3582910062189</t>
   </si>
   <si>
     <t xml:space="preserve">Senegal Doliprane CTU</t>
@@ -1148,7 +1130,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1282,14 +1264,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1339,6 +1313,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1450,19 +1428,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="A3:G19"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0728744939271"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3238866396761"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7975708502024"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2024291497976"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.63967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="27.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,19 +1698,19 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G19"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.5384615384615"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.3441295546559"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2045,17 +2023,17 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="1" sqref="A3:G19 E20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="26.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="32.8056680161943"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="26.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="24" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="24" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="24" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="24" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="14" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2235,20 +2213,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="39.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="21.914979757085"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.502024291498"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="31" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="31" width="39.7408906882591"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="31" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="31" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="31" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="32" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2283,98 +2261,6 @@
       </c>
       <c r="G2" s="26" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="42.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <v>3582910020462</v>
-      </c>
-      <c r="F4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="42.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="56.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2400,20 +2286,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="A3:G19"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.1133603238866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="36" width="38.1902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="36" width="27.9068825910931"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="36" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1023" min="8" style="37" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="24" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="34" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="24" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="34" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="34" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="24" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="24" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1023" min="8" style="35" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2428,89 +2314,89 @@
       <c r="G1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="E5" s="40" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>69</v>
       </c>
       <c r="F5" s="30" t="n">
         <v>1</v>
@@ -2541,19 +2427,19 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:G19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="45.5384615384615"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="19.82995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="44" width="18.4898785425101"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="44" width="27.663967611336"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="44" width="18.7327935222672"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="45" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="42" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="42" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="42" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="42" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="43" width="9.31983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2569,31 +2455,31 @@
       <c r="H1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="37" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2608,16 +2494,16 @@
       <c r="E3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="47" t="n">
+      <c r="F3" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="35" t="n">
+      <c r="G3" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="48"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -2632,16 +2518,16 @@
       <c r="E4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="47" t="n">
+      <c r="F4" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="35" t="n">
+      <c r="G4" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="H4" s="48"/>
+      <c r="H4" s="47"/>
     </row>
     <row r="5" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -2656,15 +2542,15 @@
       <c r="E5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="47" t="n">
+      <c r="F5" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="47" t="n">
+      <c r="G5" s="45" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2679,15 +2565,15 @@
       <c r="E6" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="47" t="n">
+      <c r="F6" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="47" t="n">
+      <c r="G6" s="45" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -2702,19 +2588,19 @@
       <c r="E7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="47" t="n">
+      <c r="F7" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="47" t="n">
+      <c r="G7" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="21" t="n">
         <v>3582910014867</v>
@@ -2725,15 +2611,15 @@
       <c r="E8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="47" t="n">
+      <c r="F8" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="47" t="n">
+      <c r="G8" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -2748,15 +2634,15 @@
       <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="47" t="n">
+      <c r="F9" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
@@ -2771,15 +2657,15 @@
       <c r="E10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="47" t="n">
+      <c r="F10" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -2794,15 +2680,15 @@
       <c r="E11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="47" t="n">
+      <c r="F11" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2817,19 +2703,19 @@
       <c r="E12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="47" t="n">
+      <c r="F12" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="44" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C13" s="21" t="n">
         <v>3582910062189</v>
@@ -2840,64 +2726,64 @@
       <c r="E13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="47" t="n">
+      <c r="F13" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="52" t="n">
+      <c r="C14" s="51" t="n">
         <v>3582910075820</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="47" t="n">
+      <c r="F14" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="47" t="n">
+      <c r="G14" s="45" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="52" t="n">
+      <c r="C15" s="51" t="n">
         <v>3582910075813</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="49" t="n">
+      <c r="F15" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="G15" s="49" t="n">
+      <c r="G15" s="48" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="21" t="n">
@@ -2906,21 +2792,21 @@
       <c r="D16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="47" t="n">
+      <c r="F16" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="47" t="n">
+      <c r="G16" s="45" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="51" t="s">
+      <c r="A17" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="21" t="n">
@@ -2929,21 +2815,21 @@
       <c r="D17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="47" t="n">
+      <c r="F17" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="47" t="n">
+      <c r="G17" s="45" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="50" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="21" t="n">
@@ -2955,18 +2841,18 @@
       <c r="E18" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="47" t="n">
+      <c r="F18" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="47" t="n">
+      <c r="G18" s="45" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="21" t="n">
@@ -2978,10 +2864,10 @@
       <c r="E19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="49" t="n">
+      <c r="F19" s="48" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="49" t="n">
+      <c r="G19" s="48" t="n">
         <v>3</v>
       </c>
     </row>
